--- a/bazy/parafie/boruszyn.xlsx
+++ b/bazy/parafie/boruszyn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.krantz\Desktop\drzewo\parafie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C92DE0-326D-4D2D-94BB-03629B2BA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E28B42-2557-4794-9520-DEBC8B2B29D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="764" activeTab="2" xr2:uid="{2EE6760B-7F3E-40D2-ACCC-CE65515BA66E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" activeTab="2" xr2:uid="{2EE6760B-7F3E-40D2-ACCC-CE65515BA66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tytuł 1" sheetId="52" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,18 +1281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1359,10 +1347,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,17 +1363,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1394,23 +1382,17 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hiperłącze 2" xfId="2" xr:uid="{9ECBE330-F32A-4E6C-AE02-3A596B5CEB9D}"/>
     <cellStyle name="Link 3" xfId="8" xr:uid="{D2760107-C02F-4BD0-A621-2A1DE5C2B44E}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{A79F3DA4-F608-4947-8B9E-6C164432BFDF}"/>
     <cellStyle name="Normalny 2 2" xfId="3" xr:uid="{A4A98D09-8873-4ED8-8065-D6CA71D94903}"/>
     <cellStyle name="Normalny 3" xfId="6" xr:uid="{60E40950-5FC7-4EBF-A4B4-EA58A57C119E}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="4" xr:uid="{68401036-1147-4CE6-9704-FD772FB0A483}"/>
     <cellStyle name="Standard 3" xfId="5" xr:uid="{82643517-B620-46E2-97D8-FB83370DFCC8}"/>
     <cellStyle name="Standard 3 2" xfId="7" xr:uid="{EE73EB2B-E449-422C-86B3-0F760D09659B}"/>
@@ -1435,9 +1417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1475,7 +1457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1581,7 +1563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1731,13 +1713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6623FF3-15A3-41EF-A104-7456B8EBA967}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="C10:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="10" spans="3:3" ht="23.25">
       <c r="C10" s="4" t="s">
@@ -1761,13 +1746,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B3185F-CB90-4A32-95AA-E2F7B47F9C8E}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -6047,13 +6035,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9067FC-9A43-4C0A-98D3-74B41A6F032C}">
-  <dimension ref="A1:J46"/>
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6065,16 +6056,17 @@
     <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="47.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6083,11 +6075,16 @@
       <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>371</v>
@@ -6101,8 +6098,11 @@
       <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K3" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>8</v>
@@ -6119,8 +6119,11 @@
       <c r="I4" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K4" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>72</v>
@@ -6134,8 +6137,11 @@
       <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K5" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>328</v>
@@ -6152,8 +6158,11 @@
       <c r="H6" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K6" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
@@ -6167,8 +6176,11 @@
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K7" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>73</v>
@@ -6182,8 +6194,11 @@
       <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K8" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="G9" s="8" t="s">
         <v>65</v>
@@ -6191,10 +6206,13 @@
       <c r="H9" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K9" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -6212,8 +6230,11 @@
       <c r="I10" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K10" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="C11" s="8" t="s">
         <v>327</v>
@@ -6227,8 +6248,11 @@
       <c r="I11" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K11" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="C12" s="8" t="s">
         <v>327</v>
@@ -6242,8 +6266,11 @@
       <c r="H12" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K12" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="C13" s="8" t="s">
         <v>327</v>
@@ -6257,8 +6284,11 @@
       <c r="H13" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K13" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -6272,8 +6302,11 @@
       <c r="H14" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K14" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="C15" s="8" t="s">
         <v>51</v>
@@ -6289,7 +6322,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -6297,7 +6330,7 @@
       <c r="D16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -6316,7 +6349,7 @@
       <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -6332,7 +6365,7 @@
       <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>182</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -6353,7 +6386,7 @@
         <v>354</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>384</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -6374,7 +6407,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -6391,7 +6424,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -6401,7 +6434,7 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -6412,7 +6445,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -6433,7 +6466,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>180</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -6448,7 +6481,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>180</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -6458,7 +6491,7 @@
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -6469,7 +6502,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>378</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -6488,7 +6521,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>378</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -6503,7 +6536,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>325</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -6515,7 +6548,7 @@
     </row>
     <row r="28" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6526,7 +6559,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>202</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -6541,7 +6574,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>177</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -6551,7 +6584,7 @@
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -6576,81 +6609,42 @@
     </row>
     <row r="33" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="G33" s="20" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="34" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="G34" s="8" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="35" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="G35" s="8" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="36" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="G36" s="8" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="37" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="G37" s="8" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="38" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="G38" s="8" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="39" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="G39" s="8" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="40" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="G40" s="8" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="41" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="G41" s="8" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="42" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="G42" s="8" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="43" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="G43" s="8" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="44" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="G44" s="8" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="45" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="G45" s="8" t="s">
-        <v>367</v>
-      </c>
     </row>
     <row r="46" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="7"/>
